--- a/biology/Médecine/Hôpital_de_l'Amitié_Tchad-Chine/Hôpital_de_l'Amitié_Tchad-Chine.xlsx
+++ b/biology/Médecine/Hôpital_de_l'Amitié_Tchad-Chine/Hôpital_de_l'Amitié_Tchad-Chine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_l%27Amiti%C3%A9_Tchad-Chine</t>
+          <t>Hôpital_de_l'Amitié_Tchad-Chine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hôpital de l'Amitié Tchad-Chine est un établissement public de santé situé à N'Djamena, sous tutelle du Ministre de la Santé Publique. Ses unités des soins couvrent presque la totalité des besoins de santé. IL était construit par le gouvernement tchadien et l'appuis de la Chine.
